--- a/detailed_channel_info/EGL-19-a_CAEEL.xlsx
+++ b/detailed_channel_info/EGL-19-a_CAEEL.xlsx
@@ -122,9 +122,6 @@
     <t>CURATOR:</t>
   </si>
   <si>
-    <t>vahidgh</t>
-  </si>
-  <si>
     <t>Graph for I-T Relationship</t>
   </si>
   <si>
@@ -207,6 +204,9 @@
   </si>
   <si>
     <t>https://chopen.herokuapp.com/api/graph_data/207?format=json</t>
+  </si>
+  <si>
+    <t>vahidgh, gopal_sarma</t>
   </si>
 </sst>
 </file>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="48.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -590,13 +590,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -604,13 +604,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -632,13 +632,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -646,13 +646,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -660,13 +660,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -674,13 +674,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -688,13 +688,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -730,13 +730,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -744,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="128" x14ac:dyDescent="0.2">
@@ -758,13 +758,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -772,13 +772,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -786,13 +786,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -800,13 +800,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -814,13 +814,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -828,13 +828,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -842,13 +842,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -928,7 +928,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
